--- a/dataset/AP_coordinate.xlsx
+++ b/dataset/AP_coordinate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ueharahideyuki/Google Drive K/講義/icsR7/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bede0a8824f31502/ドキュメント/技科大/M1前期/情報通信システム論/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC36EBC-3669-9042-83C0-628573EDEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4DC36EBC-3669-9042-83C0-628573EDEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F83A2FA-E546-452D-B9ED-A97A7F91CF19}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2820" windowWidth="23940" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AP_coordinate_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>AP_name</t>
   </si>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1177,13 +1177,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1783,7 +1785,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2023,7 +2025,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2440,1246 +2442,6 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>15.4</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>25.1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>3.6</v>
-      </c>
-      <c r="F65">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>13.5</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>3.6</v>
-      </c>
-      <c r="F66">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>26</v>
-      </c>
-      <c r="D67">
-        <v>-5.6</v>
-      </c>
-      <c r="E67">
-        <v>3.6</v>
-      </c>
-      <c r="F67">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>-1.9</v>
-      </c>
-      <c r="D68">
-        <v>-11.2</v>
-      </c>
-      <c r="E68">
-        <v>7.2</v>
-      </c>
-      <c r="F68">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>30.1</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>7.2</v>
-      </c>
-      <c r="F69">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>20.8</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>7.2</v>
-      </c>
-      <c r="F70">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>9.1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>7.2</v>
-      </c>
-      <c r="F71">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>-1.9</v>
-      </c>
-      <c r="D72">
-        <v>-11.2</v>
-      </c>
-      <c r="E72">
-        <v>10.8</v>
-      </c>
-      <c r="F72">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>30.1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>10.8</v>
-      </c>
-      <c r="F73">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>20.8</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>10.8</v>
-      </c>
-      <c r="F74">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>10.8</v>
-      </c>
-      <c r="F75">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76">
-        <v>5</v>
-      </c>
-      <c r="C76">
-        <v>-1.9</v>
-      </c>
-      <c r="D76">
-        <v>-11.2</v>
-      </c>
-      <c r="E76">
-        <v>14.4</v>
-      </c>
-      <c r="F76">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>14.4</v>
-      </c>
-      <c r="F77">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>23</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>14.4</v>
-      </c>
-      <c r="F78">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>9.1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>14.4</v>
-      </c>
-      <c r="F79">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>-1.9</v>
-      </c>
-      <c r="D80">
-        <v>-11.2</v>
-      </c>
-      <c r="E80">
-        <v>18</v>
-      </c>
-      <c r="F80">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>31.8</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>18</v>
-      </c>
-      <c r="F81">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>22.9</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>18</v>
-      </c>
-      <c r="F82">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="C83">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>18</v>
-      </c>
-      <c r="F83">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>32.4</v>
-      </c>
-      <c r="D84">
-        <v>22.2</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>34</v>
-      </c>
-      <c r="D85">
-        <v>25.5</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>33.6</v>
-      </c>
-      <c r="D86">
-        <v>20.6</v>
-      </c>
-      <c r="E86">
-        <v>3.6</v>
-      </c>
-      <c r="F86">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>43.6</v>
-      </c>
-      <c r="D87">
-        <v>30.3</v>
-      </c>
-      <c r="E87">
-        <v>3.6</v>
-      </c>
-      <c r="F87">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>30</v>
-      </c>
-      <c r="D88">
-        <v>23.2</v>
-      </c>
-      <c r="E88">
-        <v>3.6</v>
-      </c>
-      <c r="F88">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>31.5</v>
-      </c>
-      <c r="D89">
-        <v>15.8</v>
-      </c>
-      <c r="E89">
-        <v>7.2</v>
-      </c>
-      <c r="F89">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>34</v>
-      </c>
-      <c r="D90">
-        <v>23.2</v>
-      </c>
-      <c r="E90">
-        <v>7.2</v>
-      </c>
-      <c r="F90">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>27.4</v>
-      </c>
-      <c r="D91">
-        <v>26.4</v>
-      </c>
-      <c r="E91">
-        <v>7.2</v>
-      </c>
-      <c r="F91">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D92">
-        <v>18.3</v>
-      </c>
-      <c r="E92">
-        <v>10.8</v>
-      </c>
-      <c r="F92">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>31.8</v>
-      </c>
-      <c r="D93">
-        <v>21.8</v>
-      </c>
-      <c r="E93">
-        <v>10.8</v>
-      </c>
-      <c r="F93">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>22.7</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>29.8</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>41.7</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E97">
-        <v>3.6</v>
-      </c>
-      <c r="F97">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>29.9</v>
-      </c>
-      <c r="E98">
-        <v>3.6</v>
-      </c>
-      <c r="F98">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>44.1</v>
-      </c>
-      <c r="E99">
-        <v>3.6</v>
-      </c>
-      <c r="F99">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>15.6</v>
-      </c>
-      <c r="E100">
-        <v>7.2</v>
-      </c>
-      <c r="F100">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>30.7</v>
-      </c>
-      <c r="E101">
-        <v>7.2</v>
-      </c>
-      <c r="F101">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>44.2</v>
-      </c>
-      <c r="E102">
-        <v>7.2</v>
-      </c>
-      <c r="F102">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>22.6</v>
-      </c>
-      <c r="E103">
-        <v>10.8</v>
-      </c>
-      <c r="F103">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>30</v>
-      </c>
-      <c r="E104">
-        <v>10.8</v>
-      </c>
-      <c r="F104">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>41.7</v>
-      </c>
-      <c r="E105">
-        <v>10.8</v>
-      </c>
-      <c r="F105">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>22.3</v>
-      </c>
-      <c r="E106">
-        <v>14.4</v>
-      </c>
-      <c r="F106">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>30</v>
-      </c>
-      <c r="E107">
-        <v>14.4</v>
-      </c>
-      <c r="F107">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>41.7</v>
-      </c>
-      <c r="E108">
-        <v>14.4</v>
-      </c>
-      <c r="F108">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109">
-        <v>6</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>22.3</v>
-      </c>
-      <c r="E109">
-        <v>18</v>
-      </c>
-      <c r="F109">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110">
-        <v>6</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>30</v>
-      </c>
-      <c r="E110">
-        <v>18</v>
-      </c>
-      <c r="F110">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111">
-        <v>6</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>41.2</v>
-      </c>
-      <c r="E111">
-        <v>18</v>
-      </c>
-      <c r="F111">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>25.8</v>
-      </c>
-      <c r="D112">
-        <v>56</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>55</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>12.9</v>
-      </c>
-      <c r="D113">
-        <v>56</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>25.9</v>
-      </c>
-      <c r="D114">
-        <v>56</v>
-      </c>
-      <c r="E114">
-        <v>3.6</v>
-      </c>
-      <c r="F114">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>15.2</v>
-      </c>
-      <c r="D115">
-        <v>56</v>
-      </c>
-      <c r="E115">
-        <v>3.6</v>
-      </c>
-      <c r="F115">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116">
-        <v>56</v>
-      </c>
-      <c r="E116">
-        <v>3.6</v>
-      </c>
-      <c r="F116">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="C117">
-        <v>25.7</v>
-      </c>
-      <c r="D117">
-        <v>56</v>
-      </c>
-      <c r="E117">
-        <v>7.2</v>
-      </c>
-      <c r="F117">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>60</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>13.6</v>
-      </c>
-      <c r="D118">
-        <v>56</v>
-      </c>
-      <c r="E118">
-        <v>7.2</v>
-      </c>
-      <c r="F118">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>61</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D119">
-        <v>56</v>
-      </c>
-      <c r="E119">
-        <v>7.2</v>
-      </c>
-      <c r="F119">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>62</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120">
-        <v>24.5</v>
-      </c>
-      <c r="D120">
-        <v>56</v>
-      </c>
-      <c r="E120">
-        <v>10.8</v>
-      </c>
-      <c r="F120">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121">
-        <v>4</v>
-      </c>
-      <c r="C121">
-        <v>10</v>
-      </c>
-      <c r="D121">
-        <v>56</v>
-      </c>
-      <c r="E121">
-        <v>10.8</v>
-      </c>
-      <c r="F121">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-      <c r="C122">
-        <v>25.6</v>
-      </c>
-      <c r="D122">
-        <v>56</v>
-      </c>
-      <c r="E122">
-        <v>14.4</v>
-      </c>
-      <c r="F122">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-      <c r="C123">
-        <v>9.5</v>
-      </c>
-      <c r="D123">
-        <v>56</v>
-      </c>
-      <c r="E123">
-        <v>14.4</v>
-      </c>
-      <c r="F123">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124">
-        <v>6</v>
-      </c>
-      <c r="C124">
-        <v>24.4</v>
-      </c>
-      <c r="D124">
-        <v>56</v>
-      </c>
-      <c r="E124">
-        <v>18</v>
-      </c>
-      <c r="F124">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>67</v>
-      </c>
-      <c r="B125">
-        <v>6</v>
-      </c>
-      <c r="C125">
-        <v>10</v>
-      </c>
-      <c r="D125">
-        <v>56</v>
-      </c>
-      <c r="E125">
-        <v>18</v>
-      </c>
-      <c r="F125">
         <v>20.5</v>
       </c>
     </row>
